--- a/resultados_evaluacion.xlsx
+++ b/resultados_evaluacion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,56 +488,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>Anderson Velásquez</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La revolución industrial fue importante...</t>
+          <t>La caída de Roma en 476 d.C. se debió a una combinación de factores. La inestabilidad política interna y las guerras civiles debilitaron al gobierno, mientras que la economía sufría de inflación y altos impuestos militares. Socialmente, las ciudades decayeron. Estos problemas internos dejaron al Imperio vulnerable a las invasiones externas de tribus germánicas, que finalmente no pudieron ser contenidas.</t>
         </is>
       </c>
       <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>(El resumen presenta una buena estructura y comprensión del texto original, pero podría mejorar en síntesis y redacción)</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>El resumen es muy breve y no captura la esencia del texto original. Falta detalles importantes.</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>- Estructura: La secuencia de ideas es confusa y no sigue una lógica clara.
-- Ortografia: Hay errores ortográficos, como la falta de puntuación y espacios en blanco.
-- Comprension: El resumen demuestra que el autor entendió las ideas generales, pero no captura la esencia del texto original.
-- Redaccion: El texto es confuso y difícil de entender debido a la falta de claridad y concisión.
-- Sintesis: El resumen se enfoca en lo esencial, pero incluye detalles irrelevantes como la falta de contexto.</t>
+          <t>- Estructura: (La secuencia de ideas es clara y lógica)
+- Ortografia: (El resumen está libre de errores ortográficos y gramaticales)
+- Comprension: (El autor ha capturado la esencia del texto original, destacando los factores internos y externos que contribuyeron a la caída de Roma)
+- Redaccion: (El texto es claro y conciso, pero podría ser más eficiente en términos de espacio y claridad)
+- Sintesis: (El resumen se centra en lo esencial, pero podría incluir más detalles y análisis para profundizar en la comprensión del tema)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ana Gómez</t>
+          <t>Josseline De La Cruz</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La fotosíntesis es el proceso de las plantas...</t>
+          <t>Roma se cayó por los barbaros. Benian los hunos y los germanos y no tenian ejercito. Los enperadores eran malos y la jente no queria pagar impuestos. Fue en el 476. Fue un colapso total.</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -545,7 +545,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>El resumen es breve pero no captura la esencia del proceso de fotosíntesis.</t>
+          <t>El resumen presenta algunos aspectos básicos del colapso del Imperio Romano de Occidente, pero carece de profundidad y claridad. Es importante destacar que el texto original proporciona una visión más completa y matizada sobre los factores que contribuyeron al colapso del imperio.</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -555,21 +555,21 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>- Estructura: El resumen sigue una secuencia lógica, aunque podría ser más detallado.
-- Ortografia: Contiene errores ortográficos y gramaticales.
-- Comprension: Demuestra que el autor entendió la esencia del proceso de fotosíntesis, aunque podría ser más preciso.
-- Redaccion: El texto es claro y conciso, pero podría beneficiarse de una mayor claridad en la redacción.
-- Sintesis: No se enfoca en lo esencial y incluye detalles irrelevantes.</t>
+          <t>- Estructura: El resumen sigue una secuencia lógica, pero carece de transiciones y conexiones claras entre las ideas.
+- Ortografía: El texto contiene varios errores ortográficos y gramaticales, como 'Benian' en lugar de 'Bajos', 'jente' en lugar de 'gente' y 'Fue un colapso total' que no tiene sentido en este contexto.
+- Comprension: El resumen no demuestra una comprensión profunda del texto original. Falta de detalles importantes, como la inflación galopante y la dependencia del trabajo esclavo.
+- Redaccion: El texto es claro en algunos aspectos, pero carece de claridad y concisión en otros. La redacción es simple y no utiliza frases o oraciones complejas para expresar las ideas.
+- Sintesis: El resumen se enfoca principalmente en la causa principal del colapso (los barbaros), pero carece de considerar los factores sociales y económicos que contribuyeron al mismo.</t>
         </is>
       </c>
     </row>
@@ -581,39 +581,83 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>En el siglo 18 cambió todo por las máquinas...</t>
+          <t>Watson y Crick descubrieron el ADN en 1953. Dijeron que era una doble hélice, como una escalera. Los lados son de azúcar y los peldaños son bases A, T, G y C. Esto fue importante para saber cómo se copia la información de la genética. Usaron fotos de rayos X de otra científica</t>
         </is>
       </c>
       <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>El resumen presenta algunos errores ortográficos y gramaticales, pero captura la esencia del texto original. Es necesario trabajar en la claridad y concisión de la redacción.</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>El resumen presenta algunos aspectos correctos, pero carece de profundidad y detalles relevantes.</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>- Estructura: El resumen sigue una secuencia lógica, aunque podría ser más detallado.
-- Ortografia: Contiene errores ortográficos y gramaticales que afectan su claridad.
-- Comprension: No demuestra una comprensión profunda del texto original, faltando detalles relevantes.
-- Redaccion: El texto es claro y conciso, aunque podría ser más elaborado.
-- Sintesis: Se enfoca en lo esencial, pero incluye opiniones personales y detalles irrelevantes.</t>
+          <t>- Estructura: El resumen sigue una secuencia lógica y presenta las ideas principales ordenadamente, aunque podría ser más detallado.
+- Ortografía: Hay errores ortográficos como 'descubrieron' en lugar de 'propusieron', 'lados' en lugar de 'peldaños' y 'otra científica' sin aclarar quién es.
+- Comprension: El resumen no demuestra que el autor entendió el texto original, ya que omite detalles importantes como la importancia de las imágenes de difracción de rayos X y la estructura específica del ADN.
+- Redaccion: La redacción es confusa y difícil de seguir, con frases como 'Usaron fotos de rayos X de otra científica' que no aportan valor al resumen.
+- Sintesis: El resumen se enfoca en lo esencial, pero podría ser más conciso y claro en su presentación.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Fernando Mendoza</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>La estructura de doble hélice del ADN fue propuesta por Watson y Crick en 1953, utilizando datos cruciales de difracción de rayos X de Rosalind Franklin. El modelo describe dos hebras de azúcar-fosfato enrolladas, conectadas por "peldaños" de pares de bases nitrogenadas (A con T, y G con C). Esta estructura explica el almacenamiento y la replicación precisa de la información genética.</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>El resumen demuestra una buena comprensión del texto original y presenta las ideas principales de manera clara. Sin embargo, se notan algunas omisiones y simplificaciones en la descripción de la estructura del ADN.</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>- Estructura: El resumen describe correctamente el modelo de doble hélice y su relación con las hebras de azúcar-fosfato. Sin embargo, se omite la mención a Maurice Wilkins como coautor del descubrimiento.
+- Ortografia: El resumen está libre de errores ortográficos y gramaticales.
+- Comprension: El resumen demuestra una buena comprensión del texto original, pero se omite la explicación detallada de cómo funciona la estructura del ADN.
+- Redaccion: El resumen es claro y conciso, aunque podría ser más detallado en algunas partes.
+- Sintesis: El resumen se enfoca principalmente en la estructura del ADN, sin explorar otros aspectos importantes de la biología molecular.</t>
         </is>
       </c>
     </row>
